--- a/data/trans_dic/IP16B05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B05-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,25; 100,0</t>
+          <t>75,02; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,03; 100,0</t>
+          <t>58,08; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,84; 100,0</t>
+          <t>79,83; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,33; 100,0</t>
+          <t>88,79; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,16; 100,0</t>
+          <t>84,59; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,41; 100,0</t>
+          <t>71,17; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,26; 100,0</t>
+          <t>87,6; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,61; 100,0</t>
+          <t>92,2; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/IP16B05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16B05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -685,32 +685,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55,59; 100</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 100</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>55,59; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>95,01%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>91,81%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -795,42 +795,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>57,69; 100,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>91,73; 100</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>88,17; 100</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>86,51; 100</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>75,02; 100,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>73,51; 100,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>89,47; 100</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>58,08; 100,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>91,73; 100</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>88,17; 100</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,83; 100,0</t>
+          <t>78,5; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,79; 100,0</t>
+          <t>88,37; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -905,27 +905,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>43,07; 100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>81,26; 100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>73,58; 100</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>76,75; 100</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>76,75; 100</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>73,58; 100</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>43,07; 100</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -962,27 +962,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>96,71%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>94,25%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1015,42 +1015,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>76,42; 100,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>94,97; 100</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>92,39; 100</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>91,73; 100</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>84,59; 100,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>82,9; 100,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>92,39; 100</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>71,17; 100,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>94,97; 100</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>92,39; 100</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,6; 100,0</t>
+          <t>88,5; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,2; 100,0</t>
+          <t>93,42; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
